--- a/Test_Suite/background.xlsx
+++ b/Test_Suite/background.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\Test_Suite\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DD9D4A-2C7B-41C1-BEE6-29BDF8E56C6B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="23">
   <si>
     <t>CheckPoint</t>
   </si>
@@ -382,19 +388,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -404,359 +411,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF008080"/>
       <name val="Courier New"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -764,316 +440,32 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1331,24 +723,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.10833333333333" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.4416666666667" customWidth="1"/>
-    <col min="2" max="2" width="69.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="42.1083333333333" customWidth="1"/>
-    <col min="4" max="21" width="9.10833333333333" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="69.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" customWidth="1"/>
+    <col min="4" max="21" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1365,7 +757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:2">
+    <row r="2" spans="1:4" ht="16.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1373,7 +765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:2">
+    <row r="3" spans="1:4" ht="15.6">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1381,7 +773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:2">
+    <row r="4" spans="1:4" ht="15.6">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1389,7 +781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:2">
+    <row r="5" spans="1:4" ht="16.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1397,7 +789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:2">
+    <row r="6" spans="1:4" ht="15.6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1405,7 +797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="1:2">
+    <row r="7" spans="1:4" ht="15.6">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1413,7 +805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:2">
+    <row r="8" spans="1:4" ht="16.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1421,7 +813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:2">
+    <row r="9" spans="1:4" ht="15.6">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1429,7 +821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="1:2">
+    <row r="10" spans="1:4" ht="15.6">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1437,7 +829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:2">
+    <row r="11" spans="1:4" ht="16.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1445,7 +837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="1:3">
+    <row r="12" spans="1:4" ht="15.6">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1454,7 +846,7 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" ht="15.75" spans="1:2">
+    <row r="13" spans="1:4" ht="15.6">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1462,7 +854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:2">
+    <row r="14" spans="1:4" ht="16.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1470,7 +862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" ht="15.75" spans="1:2">
+    <row r="15" spans="1:4" ht="15.6">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1478,7 +870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" ht="15.75" spans="1:2">
+    <row r="16" spans="1:4" ht="15.6">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1486,7 +878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:2">
+    <row r="17" spans="1:2" ht="16.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1494,7 +886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" ht="15.75" spans="1:2">
+    <row r="18" spans="1:2" ht="15.6">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1502,7 +894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" ht="15.75" spans="1:2">
+    <row r="19" spans="1:2" ht="15.6">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1510,7 +902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:2">
+    <row r="20" spans="1:2" ht="16.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1518,7 +910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" ht="15.75" spans="1:2">
+    <row r="21" spans="1:2" ht="15.6">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1526,7 +918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" ht="15.75" spans="1:2">
+    <row r="22" spans="1:2" ht="15.6">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1534,7 +926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:2">
+    <row r="23" spans="1:2" ht="16.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1542,7 +934,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" ht="15.75" spans="1:2">
+    <row r="24" spans="1:2" ht="15.6">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1550,7 +942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" ht="15.75" spans="1:2">
+    <row r="25" spans="1:2" ht="15.6">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1558,7 +950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:2">
+    <row r="26" spans="1:2" ht="16.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1566,7 +958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" ht="15.75" spans="1:2">
+    <row r="27" spans="1:2" ht="15.6">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1574,7 +966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" ht="15.75" spans="1:2">
+    <row r="28" spans="1:2" ht="15.6">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1582,7 +974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:2">
+    <row r="29" spans="1:2" ht="16.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1590,7 +982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" ht="15.75" spans="1:2">
+    <row r="30" spans="1:2" ht="15.6">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1598,7 +990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" ht="15.75" spans="1:2">
+    <row r="31" spans="1:2" ht="15.6">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1606,7 +998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:2">
+    <row r="32" spans="1:2" ht="16.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1614,7 +1006,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" ht="15.75" spans="1:2">
+    <row r="33" spans="1:3" ht="15.6">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1622,7 +1014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" ht="15.75" spans="1:2">
+    <row r="34" spans="1:3" ht="15.6">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1630,7 +1022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:2">
+    <row r="35" spans="1:3" ht="16.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1638,7 +1030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" ht="15.75" spans="1:2">
+    <row r="36" spans="1:3" ht="15.6">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1646,7 +1038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" ht="15.75" spans="1:2">
+    <row r="37" spans="1:3" ht="15.6">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1654,7 +1046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:2">
+    <row r="38" spans="1:3" ht="16.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1662,7 +1054,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" ht="15.75" spans="1:2">
+    <row r="39" spans="1:3" ht="15.6">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1670,7 +1062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" ht="15.75" spans="1:2">
+    <row r="40" spans="1:3" ht="15.6">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1678,7 +1070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:2">
+    <row r="41" spans="1:3" ht="16.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1686,7 +1078,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" ht="15.75" spans="1:2">
+    <row r="42" spans="1:3" ht="15.6">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1694,7 +1086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" ht="15.75" spans="1:2">
+    <row r="43" spans="1:3" ht="15.6">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1702,40 +1094,47 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="44" spans="1:3" ht="16.2">
+      <c r="A44" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="3:3">
+    <row r="47" spans="1:3">
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="3:3">
+    <row r="48" spans="1:3">
       <c r="C48" s="4"/>
     </row>
-    <row r="49" spans="3:3">
+    <row r="49" spans="2:3">
       <c r="C49" s="4"/>
     </row>
-    <row r="50" spans="3:3">
+    <row r="50" spans="2:3">
       <c r="C50" s="4"/>
     </row>
-    <row r="51" spans="3:3">
+    <row r="51" spans="2:3">
       <c r="C51" s="4"/>
     </row>
-    <row r="52" spans="3:3">
+    <row r="52" spans="2:3">
       <c r="C52" s="4"/>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="3"/>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="3:3">
+    <row r="54" spans="2:3">
       <c r="C54" s="4"/>
     </row>
-    <row r="55" spans="3:3">
+    <row r="55" spans="2:3">
       <c r="C55" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>